--- a/gcam-data-system/energy-data/assumptions/Tables_A322s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A322s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="A322.sector.csv" sheetId="5" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="A322.subsector_interp.csv" sheetId="14" r:id="rId4"/>
     <sheet name="A322.globaltech_coef.csv" sheetId="68" r:id="rId5"/>
     <sheet name="A322.globaltech_shrwt.csv" sheetId="23" r:id="rId6"/>
+    <sheet name="A322.globaltech_co2capture" sheetId="69" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
   <si>
     <t>technology</t>
   </si>
@@ -134,9 +135,6 @@
     <t>Exports_fertilizer</t>
   </si>
   <si>
-    <t># Fertilizer default subsector logit exponents</t>
-  </si>
-  <si>
     <t># Fertilizer default subsector shareweights</t>
   </si>
   <si>
@@ -145,13 +143,22 @@
   <si>
     <t>gas CCS</t>
   </si>
+  <si>
+    <t>#Fertilizer CO2 capture rates</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t># Fertilizer default technology logit exponents</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -195,8 +202,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1709">
+  <cellStyleXfs count="1735">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1909,9 +1942,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1709">
+  <cellStyles count="1735">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2766,6 +2799,19 @@
     <cellStyle name="Followed Hyperlink" xfId="1704" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1706" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3620,6 +3666,19 @@
     <cellStyle name="Hyperlink" xfId="1703" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1705" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4035,9 +4094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4048,7 +4105,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4119,10 +4176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4136,7 +4193,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4200,15 +4257,29 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>2035</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
@@ -4225,10 +4296,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4323,30 +4394,50 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
+      <c r="E5">
+        <v>2035</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>18</v>
+      <c r="D6">
+        <v>2035</v>
       </c>
       <c r="E6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4366,7 +4457,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4445,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -4501,7 +4592,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -4562,10 +4653,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4578,12 +4669,12 @@
     <col min="6" max="6" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4608,8 +4699,11 @@
       <c r="H2">
         <v>2020</v>
       </c>
+      <c r="I2">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4634,8 +4728,11 @@
       <c r="H3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -4643,7 +4740,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4660,8 +4757,11 @@
       <c r="H4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -4686,8 +4786,11 @@
       <c r="H5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4695,7 +4798,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4712,8 +4815,11 @@
       <c r="H6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4738,8 +4844,11 @@
       <c r="H7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -4763,6 +4872,86 @@
       </c>
       <c r="H8">
         <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1971</v>
+      </c>
+      <c r="E2">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <v>0.9</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>0.9</v>
+      </c>
+      <c r="E4">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/gcam-data-system/energy-data/assumptions/Tables_A322s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A322s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="A322.sector.csv" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,8 @@
     <sheet name="A322.subsector_interp.csv" sheetId="14" r:id="rId4"/>
     <sheet name="A322.globaltech_coef.csv" sheetId="68" r:id="rId5"/>
     <sheet name="A322.globaltech_shrwt.csv" sheetId="23" r:id="rId6"/>
-    <sheet name="A322.globaltech_co2capture" sheetId="69" r:id="rId7"/>
+    <sheet name="A322.globaltech_co2capture.csv" sheetId="69" r:id="rId7"/>
+    <sheet name="A322.globaltech_renew.csv" sheetId="70" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="46">
   <si>
     <t>technology</t>
   </si>
@@ -111,18 +112,6 @@
     <t>refined liquids</t>
   </si>
   <si>
-    <t># Industry default supplysector information (units and logit exponents)</t>
-  </si>
-  <si>
-    <t># Industry default subsector shareweight interpolation</t>
-  </si>
-  <si>
-    <t># Industry default coefficients</t>
-  </si>
-  <si>
-    <t># Industry (intermediate service) default shareweights</t>
-  </si>
-  <si>
     <t>N fertilizer</t>
   </si>
   <si>
@@ -151,6 +140,30 @@
   </si>
   <si>
     <t># Fertilizer default technology logit exponents</t>
+  </si>
+  <si>
+    <t>Imports</t>
+  </si>
+  <si>
+    <t># Fertilizer production default coefficients</t>
+  </si>
+  <si>
+    <t># Fertilizer default subsector shareweight interpolation</t>
+  </si>
+  <si>
+    <t># Fertilizer default supplysector information (units and logit exponents)</t>
+  </si>
+  <si>
+    <t># Fertilizer default shareweights</t>
+  </si>
+  <si>
+    <t># Renewable input to import technologies of fertilizer production</t>
+  </si>
+  <si>
+    <t>renewable.input</t>
+  </si>
+  <si>
+    <t>renewable</t>
   </si>
 </sst>
 </file>
@@ -202,8 +215,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1735">
+  <cellStyleXfs count="1765">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1944,7 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1735">
+  <cellStyles count="1765">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2812,6 +2855,21 @@
     <cellStyle name="Followed Hyperlink" xfId="1730" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1732" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1764" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3679,6 +3737,21 @@
     <cellStyle name="Hyperlink" xfId="1729" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1731" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1763" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4011,7 +4084,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4025,7 +4098,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4047,16 +4120,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>-3</v>
@@ -4064,16 +4137,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>-3</v>
@@ -4092,9 +4165,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -4105,7 +4180,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4121,7 +4196,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4132,7 +4207,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -4143,7 +4218,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -4154,12 +4229,23 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C6">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
         <v>-12</v>
       </c>
     </row>
@@ -4176,10 +4262,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4193,7 +4279,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4215,7 +4301,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4229,7 +4315,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -4243,7 +4329,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -4257,7 +4343,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -4271,15 +4357,29 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
         <v>0</v>
       </c>
     </row>
@@ -4299,7 +4399,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4315,7 +4415,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4343,7 +4443,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4363,7 +4463,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -4383,7 +4483,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -4398,12 +4498,12 @@
         <v>2035</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
@@ -4423,10 +4523,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -4454,10 +4554,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4471,7 +4571,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4502,7 +4602,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4530,13 +4630,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -4558,7 +4658,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -4586,13 +4686,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -4614,7 +4714,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -4638,6 +4738,32 @@
       <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>3.2492337942403852E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4653,10 +4779,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4671,7 +4797,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4705,7 +4831,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -4734,13 +4860,13 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -4763,7 +4889,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -4792,13 +4918,13 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -4821,7 +4947,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -4850,13 +4976,13 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -4874,6 +5000,35 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>0</v>
       </c>
     </row>
@@ -4893,14 +5048,14 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4922,13 +5077,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>0.9</v>
@@ -4939,19 +5094,78 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>0.9</v>
       </c>
       <c r="E4">
         <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/gcam-data-system/energy-data/assumptions/Tables_A322s.xlsx
+++ b/gcam-data-system/energy-data/assumptions/Tables_A322s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="25360" windowHeight="15780" tabRatio="684" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="A322.sector.csv" sheetId="5" r:id="rId1"/>
@@ -4265,7 +4265,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4398,8 +4398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4478,7 +4478,7 @@
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5124,7 +5124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
